--- a/tests/test-files/test_wrangling/expected/t_test_output.xlsx
+++ b/tests/test-files/test_wrangling/expected/t_test_output.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdaf2c4ef198b934/Documents/GitHub/disco-data-processing/tests/test-files/test_wrangling/expected/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_582DD32D864A382EEB75ECF65B5DCE3A8746FCBE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0A7B8A7-3EBD-4B19-A33E-64A3DBA30B1D}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_582DD32D864A382EEB75ECF65B5DCE3A8746FCBE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C3415C-C5AB-40CD-8C81-A57B481FB6FC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -430,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L248"/>
+  <dimension ref="A1:K248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="O249" sqref="O249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -461,7 +459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -480,7 +478,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -491,7 +489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>6.9</v>
       </c>
@@ -525,12 +523,8 @@
       <c r="K4" t="b">
         <v>1</v>
       </c>
-      <c r="L4">
-        <f>_xlfn.T.DIST(1-(0.05/2),H4,1)</f>
-        <v>0.78380341116957153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -561,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -592,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -623,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -654,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -685,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -716,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>0.5</v>
@@ -749,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1">
@@ -780,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
@@ -811,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1">
@@ -842,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1">
@@ -873,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1">
@@ -904,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1">
@@ -935,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>0.75</v>
@@ -968,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1">
@@ -999,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1">
@@ -1030,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1">
@@ -1061,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1">
@@ -1092,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1">
@@ -1123,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1">
@@ -1154,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>1</v>
@@ -1187,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1">
@@ -1218,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1">
@@ -1249,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1">
@@ -1280,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1">
@@ -1311,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1">
@@ -1342,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1">
@@ -1373,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>1.25</v>
@@ -1406,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1">
@@ -1437,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1">
@@ -1468,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1">
@@ -1499,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1">
@@ -1530,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1">
@@ -1561,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1">
@@ -1592,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>1.5</v>
@@ -1625,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1">
@@ -1656,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1">
@@ -1687,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1">
@@ -1718,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1">
@@ -1749,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1">
@@ -1780,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1">
@@ -1811,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>1.75</v>
@@ -1844,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1">
@@ -1875,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1">
@@ -1906,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1">
@@ -1937,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1">
@@ -1968,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1">
@@ -1999,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1">
@@ -2030,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>8.1280000000000001</v>
       </c>
@@ -2065,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1">
@@ -2096,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1">
@@ -2127,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1">
@@ -2158,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1">
@@ -2189,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1">
@@ -2220,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1">
@@ -2251,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>0.5</v>
@@ -2284,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1">
@@ -2315,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1">
@@ -2346,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1">
@@ -2377,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1">
@@ -2408,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1">
@@ -2439,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1">
@@ -2470,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2">
         <v>0.75</v>
@@ -2503,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1">
@@ -2534,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1">
@@ -2565,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1">
@@ -2596,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1">
@@ -2627,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1">
@@ -2658,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1">
@@ -2689,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2">
         <v>1</v>
@@ -2722,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1">
@@ -2753,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1">
@@ -2784,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1">
@@ -2815,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1">
@@ -2846,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1">
@@ -2877,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1">
@@ -2908,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2">
         <v>1.25</v>
@@ -2941,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1">
@@ -2972,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1">
@@ -3003,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1">
@@ -3034,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1">
@@ -3065,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1">
@@ -3096,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1">
@@ -3127,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
         <v>1.5</v>
@@ -3160,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1">
@@ -3191,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1">
@@ -3222,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1">
@@ -3253,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1">
@@ -3284,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1">
@@ -3315,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1">
@@ -3346,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2">
         <v>1.75</v>
@@ -3379,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1">
@@ -3410,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1">
@@ -3441,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1">
@@ -3472,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1">
@@ -3503,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1">
@@ -3534,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1">
@@ -3565,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>9.5625</v>
       </c>
@@ -3600,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1">
@@ -3631,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1">
@@ -3662,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1">
@@ -3693,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1">
@@ -3724,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1">
@@ -3755,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1">
@@ -3786,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2">
         <v>0.5</v>
@@ -3819,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1">
@@ -3850,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1">
@@ -3881,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1">
@@ -3912,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1">
@@ -3943,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1">
@@ -3974,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1">
@@ -4005,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2">
         <v>0.75</v>
@@ -4038,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1">
@@ -4069,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1">
@@ -4100,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1">
@@ -4131,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1">
@@ -4162,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1">
@@ -4193,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1">
@@ -4224,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2">
         <v>1</v>
@@ -4257,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1">
@@ -4288,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1">
@@ -4319,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1">
@@ -4350,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1">
@@ -4381,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1">
@@ -4412,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1">
@@ -4443,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2">
         <v>1.25</v>
@@ -4476,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1">
@@ -4507,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1">
@@ -4538,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1">
@@ -4569,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1">
@@ -4600,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1">
@@ -4631,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1">
@@ -4662,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2">
         <v>1.5</v>
@@ -4695,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1">
@@ -4726,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1">
@@ -4757,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1">
@@ -4788,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1">
@@ -4819,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1">
@@ -4850,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1">
@@ -4881,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2">
         <v>1.75</v>
@@ -4914,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1">
@@ -4945,7 +4939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1">
@@ -4976,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1">
@@ -5007,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1">
@@ -5038,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1">
@@ -5069,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1">
@@ -5100,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>11.25</v>
       </c>
@@ -5135,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1">
@@ -5166,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1">
@@ -5197,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1">
@@ -5228,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1">
@@ -5259,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1">
@@ -5290,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1">
@@ -5321,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2">
         <v>0.5</v>
@@ -5354,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1">
@@ -5385,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1">
@@ -5416,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1">
@@ -5447,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1">
@@ -5478,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1">
@@ -5509,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1">
@@ -5540,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2">
         <v>0.75</v>
@@ -5573,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1">
@@ -5604,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1">
@@ -5635,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1">
@@ -5666,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1">
@@ -5697,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1">
@@ -5728,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1">
@@ -5759,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2">
         <v>1</v>
@@ -5792,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1">
@@ -5823,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1">
@@ -5854,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1">
@@ -5885,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1">
@@ -5916,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1">
@@ -5947,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1">
@@ -5978,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2">
         <v>1.25</v>
@@ -6011,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1">
@@ -6042,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1">
@@ -6073,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1">
@@ -6104,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1">
@@ -6135,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1">
@@ -6166,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1">
@@ -6197,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2">
         <v>1.5</v>
@@ -6230,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1">
@@ -6261,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1">
@@ -6292,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1">
@@ -6323,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1">
@@ -6354,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1">
@@ -6385,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1">
@@ -6416,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2">
         <v>1.75</v>
@@ -6449,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1">
@@ -6480,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1">
@@ -6511,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1">
@@ -6542,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1">
@@ -6573,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1">
@@ -6604,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1">
@@ -6635,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>13.5</v>
       </c>
@@ -6670,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1">
@@ -6701,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1">
@@ -6732,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1">
@@ -6763,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1">
@@ -6794,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1">
@@ -6825,7 +6819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1">
@@ -6856,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2">
         <v>0.5</v>
@@ -6889,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1">
@@ -6920,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1">
@@ -6951,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1">
@@ -6982,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1">
@@ -7013,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1">
@@ -7044,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1">
@@ -7075,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2">
         <v>0.75</v>
@@ -7108,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1">
@@ -7139,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1">
@@ -7170,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1">
@@ -7201,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1">
@@ -7232,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1">
@@ -7263,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1">
@@ -7294,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2">
         <v>1</v>
@@ -7327,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1">
@@ -7358,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1">
@@ -7389,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1">
@@ -7420,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1">
@@ -7451,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1">
@@ -7482,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1">
@@ -7513,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2">
         <v>1.25</v>
@@ -7546,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1">
@@ -7577,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1">
@@ -7608,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1">
@@ -7639,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1">
@@ -7670,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1">
@@ -7701,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1">
@@ -7732,7 +7726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2">
         <v>1.5</v>
@@ -7765,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1">
@@ -7796,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1">
@@ -7827,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1">
@@ -7858,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1">
@@ -7889,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="1">
@@ -7920,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="1">
@@ -7951,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2">
         <v>1.75</v>
@@ -7984,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1">
@@ -8015,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="1">
@@ -8046,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="1">
@@ -8077,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="1">
@@ -8108,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="1">
@@ -8139,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="1">
@@ -8164,7 +8158,7 @@
         <v>2</v>
       </c>
       <c r="J248">
-        <v>8.166723345592436E-2</v>
+        <v>8.1667233455924401E-2</v>
       </c>
       <c r="K248" t="b">
         <v>1</v>
@@ -8172,18 +8166,20 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:A52"/>
-    <mergeCell ref="A53:A101"/>
-    <mergeCell ref="A102:A150"/>
-    <mergeCell ref="B102:B108"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="B130:B136"/>
-    <mergeCell ref="B137:B143"/>
-    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="B221:B227"/>
+    <mergeCell ref="B228:B234"/>
+    <mergeCell ref="B235:B241"/>
+    <mergeCell ref="B242:B248"/>
+    <mergeCell ref="B186:B192"/>
+    <mergeCell ref="B193:B199"/>
+    <mergeCell ref="B200:B206"/>
+    <mergeCell ref="B207:B213"/>
+    <mergeCell ref="B214:B220"/>
+    <mergeCell ref="B151:B157"/>
+    <mergeCell ref="B158:B164"/>
+    <mergeCell ref="B165:B171"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="B179:B185"/>
     <mergeCell ref="A151:A199"/>
     <mergeCell ref="A200:A248"/>
     <mergeCell ref="B4:B10"/>
@@ -8200,20 +8196,18 @@
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B94"/>
     <mergeCell ref="B95:B101"/>
-    <mergeCell ref="B151:B157"/>
-    <mergeCell ref="B158:B164"/>
-    <mergeCell ref="B165:B171"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="B179:B185"/>
-    <mergeCell ref="B221:B227"/>
-    <mergeCell ref="B228:B234"/>
-    <mergeCell ref="B235:B241"/>
-    <mergeCell ref="B242:B248"/>
-    <mergeCell ref="B186:B192"/>
-    <mergeCell ref="B193:B199"/>
-    <mergeCell ref="B200:B206"/>
-    <mergeCell ref="B207:B213"/>
-    <mergeCell ref="B214:B220"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A4:A52"/>
+    <mergeCell ref="A53:A101"/>
+    <mergeCell ref="A102:A150"/>
+    <mergeCell ref="B102:B108"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="B137:B143"/>
+    <mergeCell ref="B144:B150"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
